--- a/Book.xlsx
+++ b/Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\selfapproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163EFBBF-268C-4DD4-889A-9BE6C5937F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A80F2-2AC3-4B1E-9107-003C3CBD7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MA3354" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CS3351" sheetId="3" r:id="rId3"/>
     <sheet name="CS3352" sheetId="4" r:id="rId4"/>
     <sheet name="CS3391" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="arrear" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -74,9 +74,6 @@
     <t>J</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>ab</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>ARH</t>
-  </si>
-  <si>
     <t>ap</t>
   </si>
   <si>
@@ -114,6 +108,9 @@
   </si>
   <si>
     <t>regno</t>
+  </si>
+  <si>
+    <t>Arrear history</t>
   </si>
 </sst>
 </file>
@@ -485,13 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -506,6 +506,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -520,6 +523,9 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2">
+        <v>711723104084</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -532,7 +538,10 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>711723104085</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,6 +557,9 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>711723104086</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -560,7 +572,10 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>711723104087</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -576,6 +591,9 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="E6">
+        <v>711723104088</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -588,7 +606,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>711723104089</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -604,6 +625,9 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
+      <c r="E8">
+        <v>711723104090</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -616,7 +640,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>711723104091</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -630,7 +657,10 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>711723104092</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -644,12 +674,10 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>711723104093</v>
       </c>
     </row>
   </sheetData>
@@ -659,15 +687,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F88C76-3F59-48BC-80D9-DC5167E6D78B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,8 +711,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -692,10 +726,13 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>711723104084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -706,10 +743,13 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>711723104085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -722,8 +762,11 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>711723104086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -734,10 +777,13 @@
         <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>711723104087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -748,10 +794,13 @@
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>711723104088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -764,8 +813,11 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>711723104089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -776,10 +828,13 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>711723104090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -790,10 +845,13 @@
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>711723104091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -804,10 +862,13 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>711723104092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -819,6 +880,9 @@
       </c>
       <c r="D11" t="s">
         <v>4</v>
+      </c>
+      <c r="E11">
+        <v>711723104093</v>
       </c>
     </row>
   </sheetData>
@@ -828,15 +892,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE141FD4-2152-4702-B9DC-80F16124D601}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -849,8 +916,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -863,8 +933,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>711723104084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -875,10 +948,13 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>711723104085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -889,10 +965,13 @@
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>711723104086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -903,10 +982,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>711723104087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -917,10 +999,13 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>711723104088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -931,10 +1016,13 @@
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>711723104089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -947,8 +1035,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>711723104090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -959,10 +1050,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>711723104091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -973,10 +1067,13 @@
         <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>711723104092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -988,6 +1085,9 @@
       </c>
       <c r="D11" t="s">
         <v>5</v>
+      </c>
+      <c r="E11">
+        <v>711723104093</v>
       </c>
     </row>
   </sheetData>
@@ -997,15 +1097,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB8CC4D-D437-4985-9BD3-7A47D7BA7491}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,8 +1121,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1030,10 +1136,13 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>711723104084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1044,10 +1153,13 @@
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>711723104085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1172,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>711723104086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1072,10 +1187,13 @@
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>711723104087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1206,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>711723104088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1100,10 +1221,13 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>711723104089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1114,10 +1238,13 @@
         <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>711723104090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1128,10 +1255,13 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>711723104091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1142,10 +1272,13 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>711723104092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1157,6 +1290,9 @@
       </c>
       <c r="D11" t="s">
         <v>5</v>
+      </c>
+      <c r="E11">
+        <v>711723104093</v>
       </c>
     </row>
   </sheetData>
@@ -1166,15 +1302,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76689F-C941-4B42-AF1F-4993B061787B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,8 +1326,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1199,10 +1341,13 @@
         <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>711723104084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1215,8 +1360,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>711723104085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1227,10 +1375,13 @@
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>711723104086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1241,10 +1392,13 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>711723104087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1255,10 +1409,13 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>711723104088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1269,10 +1426,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>711723104089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1283,10 +1443,13 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>711723104090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1297,10 +1460,13 @@
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>711723104091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1313,8 +1479,11 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>711723104092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1326,6 +1495,9 @@
       </c>
       <c r="D11" t="s">
         <v>4</v>
+      </c>
+      <c r="E11">
+        <v>711723104093</v>
       </c>
     </row>
   </sheetData>
@@ -1337,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75C4F1-716D-42D5-B1AE-91814AACB107}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1352,22 +1524,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1381,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1390,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1398,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>711723104084</v>
+        <v>711723104085</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1410,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1421,22 +1593,22 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>711723104084</v>
+        <v>711723104086</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1444,7 +1616,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>711723104084</v>
+        <v>711723104087</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1453,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1467,22 +1639,22 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>711723104084</v>
+        <v>711723104088</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1490,7 +1662,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>711723104084</v>
+        <v>711723104089</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1505,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1513,22 +1685,22 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>711723104084</v>
+        <v>711723104090</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1536,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>711723104084</v>
+        <v>711723104091</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1548,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1559,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>711723104084</v>
+        <v>711723104092</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1568,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1582,7 +1754,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>711723104084</v>
+        <v>711723104093</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1594,13 +1766,14 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\selfapproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A80F2-2AC3-4B1E-9107-003C3CBD7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E6AEE5-7E1A-4071-83EE-C3BE1575EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MA3354" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>Arrear history</t>
+  </si>
+  <si>
+    <t>cgpa</t>
+  </si>
+  <si>
+    <t>mentor</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1304,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76689F-C941-4B42-AF1F-4993B061787B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1507,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75C4F1-716D-42D5-B1AE-91814AACB107}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1519,7 +1534,7 @@
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1541,8 +1556,14 @@
       <c r="G1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1564,8 +1585,14 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1587,8 +1614,14 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1610,8 +1643,14 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1633,8 +1672,14 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1656,8 +1701,14 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>8.6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1679,8 +1730,14 @@
       <c r="G7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1702,8 +1759,14 @@
       <c r="G8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1725,8 +1788,14 @@
       <c r="G9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>7.8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1748,8 +1817,14 @@
       <c r="G10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1770,6 +1845,12 @@
       </c>
       <c r="G11" t="s">
         <v>19</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\selfapproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E6AEE5-7E1A-4071-83EE-C3BE1575EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A1DBCF-C6AD-440E-ABCD-B3FFAF384CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MA3354" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>reason for absents</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,7 +511,7 @@
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +527,11 @@
       <c r="E1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -542,7 +548,7 @@
         <v>711723104084</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -559,7 +565,7 @@
         <v>711723104085</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -576,7 +582,7 @@
         <v>711723104086</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -593,7 +599,7 @@
         <v>711723104087</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -610,7 +616,7 @@
         <v>711723104088</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -627,7 +633,7 @@
         <v>711723104089</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -644,7 +650,7 @@
         <v>711723104090</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -655,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>711723104091</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -672,13 +678,13 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>711723104092</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -702,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F88C76-3F59-48BC-80D9-DC5167E6D78B}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -713,7 +719,7 @@
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,8 +735,11 @@
       <c r="E1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -747,7 +756,7 @@
         <v>711723104084</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -764,7 +773,7 @@
         <v>711723104085</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -781,7 +790,7 @@
         <v>711723104086</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -798,7 +807,7 @@
         <v>711723104087</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -815,7 +824,7 @@
         <v>711723104088</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -832,7 +841,7 @@
         <v>711723104089</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -843,13 +852,13 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>711723104090</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -860,13 +869,13 @@
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>711723104091</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -877,13 +886,13 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>711723104092</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -907,10 +916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE141FD4-2152-4702-B9DC-80F16124D601}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -918,7 +927,7 @@
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -934,8 +943,11 @@
       <c r="E1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -952,7 +964,7 @@
         <v>711723104084</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -969,7 +981,7 @@
         <v>711723104085</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -986,7 +998,7 @@
         <v>711723104086</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -997,13 +1009,13 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>711723104087</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1032,7 @@
         <v>711723104088</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>711723104089</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>711723104090</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1065,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>711723104091</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>711723104092</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1112,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB8CC4D-D437-4985-9BD3-7A47D7BA7491}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,7 +1135,7 @@
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1151,11 @@
       <c r="E1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1151,13 +1166,13 @@
         <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>711723104084</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1189,7 @@
         <v>711723104085</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +1206,7 @@
         <v>711723104086</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1223,7 @@
         <v>711723104087</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1240,7 @@
         <v>711723104088</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1236,13 +1251,13 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>711723104089</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1274,7 @@
         <v>711723104090</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1270,13 +1285,13 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>711723104091</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1287,13 +1302,13 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>711723104092</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1317,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E76689F-C941-4B42-AF1F-4993B061787B}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1328,7 +1343,7 @@
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1344,8 +1359,11 @@
       <c r="E1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1380,7 @@
         <v>711723104084</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1397,7 @@
         <v>711723104085</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1390,13 +1408,13 @@
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>711723104086</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1407,13 +1425,13 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>711723104087</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>711723104088</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1465,7 @@
         <v>711723104089</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1458,13 +1476,13 @@
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>711723104090</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1475,13 +1493,13 @@
         <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>711723104091</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1516,7 @@
         <v>711723104092</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1524,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75C4F1-716D-42D5-B1AE-91814AACB107}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
